--- a/docss/trend/spain/E_sarcoidosis.xlsx
+++ b/docss/trend/spain/E_sarcoidosis.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej2_Sarcoidosis_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej2_Sarcoidosis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12810,7 +12810,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12834,13 +12834,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>5.3773529E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>5.4242204000000002E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>4.9742831000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12848,13 +12848,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>6.0310269629119298E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C3">
-        <v>3.7046585799140698E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>8.0280975073107594E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12862,13 +12862,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>4.9304034918336501E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C4">
-        <v>6.0627097938760401E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D4">
-        <v>3.8987760105258402E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12876,13 +12876,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>4.6438197000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>3.2370945999999998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>5.6407021000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12890,13 +12890,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>4.94926553098929E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C6">
-        <v>3.4703070062523003E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D6">
-        <v>6.17175430923061E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12904,13 +12904,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>4.9761212167244502E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C7">
-        <v>2.6572013221811901E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D7">
-        <v>6.9691474992512298E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12918,13 +12918,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>5.5722278835365499E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C8">
-        <v>4.23996167656749E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D8">
-        <v>6.7222649677052104E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12932,13 +12932,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>5.5737353473247299E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C9">
-        <v>4.6655961257671102E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D9">
-        <v>5.8882793295922803E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12946,13 +12946,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>3.7884017945614898E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C10">
-        <v>2.8627536780620699E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D10">
-        <v>4.3101516483130702E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12960,13 +12960,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>5.9756932270004198E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C11">
-        <v>3.57609430964696E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D11">
-        <v>7.8383006666064403E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12974,13 +12974,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>6.15701213134262E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C12">
-        <v>5.14740904280492E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D12">
-        <v>6.6088287356969797E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12988,13 +12988,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>4.4451867939393597E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C13">
-        <v>3.99838706591557E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D13">
-        <v>4.7566985296365001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13002,13 +13002,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>4.5903571270045303E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C14">
-        <v>3.9401474117988701E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D14">
-        <v>5.0810558655419003E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13016,13 +13016,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>7.0161429512886606E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C15">
-        <v>6.3474532575786405E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D15">
-        <v>7.3900309530479699E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13030,13 +13030,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>6.4678421899470498E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C16">
-        <v>6.6752824925457296E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D16">
-        <v>6.2462683840937498E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
   </sheetData>
